--- a/data/zh-cn/talents.xlsx
+++ b/data/zh-cn/talents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/T-chm/Desktop/lifeRestart/data/zh-cn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E64FAB-B0A3-4604-9A39-77C232C21243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D53A44F-08E7-FD4D-9E36-AEC0BB19A876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -2300,11 +2300,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2317,7 +2317,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2419,7 +2419,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2700,30 +2700,30 @@
   <dimension ref="A1:AL186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="P176" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB172" sqref="AB172"/>
+      <selection pane="bottomRight" activeCell="P186" sqref="P186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="39.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1"/>
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
     <col min="8" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="30" width="23.375" style="1" customWidth="1"/>
-    <col min="31" max="33" width="18.875" style="6" customWidth="1"/>
-    <col min="34" max="34" width="19.375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="21.875" style="1" customWidth="1"/>
-    <col min="36" max="36" width="19.125" style="1" customWidth="1"/>
+    <col min="14" max="30" width="23.33203125" style="1" customWidth="1"/>
+    <col min="31" max="33" width="18.83203125" style="6" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="19.1640625" style="1" customWidth="1"/>
     <col min="37" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="39.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>219</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" s="3" customFormat="1" ht="39.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="39.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="39.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="39.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="39.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="39.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3040,10 +3040,10 @@
         <v>132</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="39.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="39.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -3071,13 +3071,13 @@
         <v>134</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="39.5" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="39.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="39.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>137</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="39.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="39.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="39.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="39.5" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>144</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3223,7 +3223,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="39.5" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="39.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="39.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="39.5" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>152</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -3294,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="39.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3305,13 +3305,13 @@
         <v>254</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="39.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -3322,13 +3322,13 @@
         <v>163</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="39.5" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>165</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>2</v>
@@ -3348,7 +3348,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="39.5" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -3359,10 +3359,10 @@
         <v>167</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="39.5" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>168</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="39.5" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>171</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="6" t="s">
         <v>383</v>
@@ -3414,7 +3414,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="39.5" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" ht="39.5" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" ht="39.5" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -3468,13 +3468,13 @@
         <v>175</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="6" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="39.5" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" ht="39.5" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="39.5" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="39.5" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="39.5" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="39.5" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="39.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="39.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="39.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="39.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="39.5" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="39.5" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3669,10 +3669,10 @@
         <v>198</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="39.5" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="39.5" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="39.5" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="39.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="39.5" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="39.5" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="39.5" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="39.5" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="39.5" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3801,10 +3801,10 @@
         <v>216</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="39.5" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="39.5" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="39.5" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="39.5" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="39.5" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="39.5" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="39.5" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="39.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="39.5" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="39.5" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="39.5" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="39.5" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="39.5" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="39.5" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="39.5" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="39.5" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="39.5" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="39.5" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="39.5" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="39.5" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="39.5" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="39.5" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="39.5" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="39.5" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="39.5" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="39.5" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="39.5" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="39.5" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="39.5" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="39.5" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="39.5" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="39.5" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="39.5" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="39.5" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="39.5" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="39.5" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="39.5" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="39.5" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="39.5" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="39.5" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="39.5" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="39.5" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="39.5" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="39.5" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="39.5" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="39.5" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="39.5" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="39.5" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="39.5" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="39.5" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="39.5" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="39.5" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="39.5" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="39.5" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="39.5" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="39.5" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="39.5" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="39.5" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="39.5" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="39.5" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="39.5" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="39.5" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" ht="39.5" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" ht="39.5" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" ht="39.5" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" ht="39.5" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -5169,10 +5169,10 @@
         <v>497</v>
       </c>
       <c r="E116" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:36" ht="39.5" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" ht="39.5" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" ht="39.5" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" ht="39.5" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" ht="39.5" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>402</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" ht="39.5" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>403</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" ht="39.5" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>404</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" ht="39.5" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>405</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" ht="39.5" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>406</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" ht="39.5" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>407</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" ht="39.5" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>408</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" ht="39.5" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>409</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:38" ht="39.5" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>410</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:38" ht="39.5" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>411</v>
       </c>
@@ -5377,10 +5377,10 @@
         <v>442</v>
       </c>
       <c r="E130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:38" ht="39.5" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:38" ht="39.5" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>432</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:38" ht="39.5" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>449</v>
       </c>
@@ -5419,10 +5419,10 @@
         <v>451</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:38" ht="39.5" customHeight="1">
       <c r="A134" s="1">
         <v>1132</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:38" ht="39.5" customHeight="1">
       <c r="A135" s="1">
         <v>1133</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:38" ht="39.5" customHeight="1">
       <c r="A136" s="1">
         <v>1134</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:38" ht="39.5" customHeight="1">
       <c r="A137" s="1">
         <v>1135</v>
       </c>
@@ -5475,10 +5475,10 @@
         <v>466</v>
       </c>
       <c r="E137" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38" ht="39.5" customHeight="1">
       <c r="A138" s="1">
         <v>1136</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="139" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:38" ht="39.5" customHeight="1">
       <c r="A139" s="1">
         <v>1137</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>470</v>
       </c>
       <c r="E139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" s="1">
         <v>2</v>
@@ -5527,7 +5527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:38" ht="39.5" customHeight="1">
       <c r="A140" s="1">
         <v>1138</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:38" ht="39.5" customHeight="1">
       <c r="A141" s="1">
         <v>1139</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:38" ht="39.5" customHeight="1">
       <c r="A142" s="1">
         <v>1140</v>
       </c>
@@ -5572,13 +5572,13 @@
         <v>474</v>
       </c>
       <c r="E142" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M142" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:38" ht="39.5" customHeight="1">
       <c r="A143" s="1">
         <v>1141</v>
       </c>
@@ -5589,13 +5589,13 @@
         <v>475</v>
       </c>
       <c r="E143" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M143" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:38" ht="39.5" customHeight="1">
       <c r="A144" s="1">
         <v>1142</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="145" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:38" ht="39.5" customHeight="1">
       <c r="A145" s="1">
         <v>1143</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="146" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:38" ht="39.5" customHeight="1">
       <c r="A146" s="1">
         <v>1144</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:38" ht="39.5" customHeight="1">
       <c r="A147" s="1">
         <v>1145</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>492</v>
       </c>
       <c r="E147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O147" s="6">
         <v>1138</v>
@@ -5756,7 +5756,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="148" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:38" ht="39.5" customHeight="1">
       <c r="A148" s="1">
         <v>1146</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="149" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:38" ht="39.5" customHeight="1">
       <c r="A149" s="1">
         <v>1147</v>
       </c>
@@ -5802,10 +5802,10 @@
         <v>581</v>
       </c>
       <c r="E149" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" ht="39.5" customHeight="1">
       <c r="A150" s="1">
         <v>1148</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="151" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:38" ht="39.5" customHeight="1">
       <c r="A151" s="1">
         <v>2001</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:38" ht="39.5" customHeight="1">
       <c r="A152" s="1">
         <v>2002</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:38" ht="39.5" customHeight="1">
       <c r="A153" s="1">
         <v>2003</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:38" ht="39.5" customHeight="1">
       <c r="A154" s="1">
         <v>2004</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:38" ht="39.5" customHeight="1">
       <c r="A155" s="1">
         <v>2005</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:38" ht="39.5" customHeight="1">
       <c r="A156" s="1">
         <v>2006</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="157" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:38" ht="39.5" customHeight="1">
       <c r="A157" s="1">
         <v>2007</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:38" ht="39.5" customHeight="1">
       <c r="A158" s="1">
         <v>2008</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:38" ht="39.5" customHeight="1">
       <c r="A159" s="1">
         <v>2009</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="160" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:38" ht="39.5" customHeight="1">
       <c r="A160" s="1">
         <v>2010</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="161" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:38" ht="39.5" customHeight="1">
       <c r="A161" s="1">
         <v>2011</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="162" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:38" ht="39.5" customHeight="1">
       <c r="A162" s="1">
         <v>2012</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="163" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:38" ht="39.5" customHeight="1">
       <c r="A163" s="1">
         <v>2013</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="164" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:38" ht="39.5" customHeight="1">
       <c r="A164" s="1">
         <v>2014</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:38" ht="39.5" customHeight="1">
       <c r="A165" s="1">
         <v>2015</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:38" ht="39.5" customHeight="1">
       <c r="A166" s="1">
         <v>2016</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="167" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:38" ht="39.5" customHeight="1">
       <c r="A167" s="1">
         <v>2017</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:38" ht="39.5" customHeight="1">
       <c r="A168" s="1">
         <v>2018</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="169" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:38" ht="39.5" customHeight="1">
       <c r="A169" s="1">
         <v>2019</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>498</v>
       </c>
       <c r="E169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" s="1">
         <v>1</v>
@@ -6412,7 +6412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:38" ht="39.5" customHeight="1">
       <c r="A170" s="1">
         <v>2020</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="171" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:38" ht="39.5" customHeight="1">
       <c r="A171" s="1">
         <v>2021</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="AC171" s="6"/>
       <c r="AD171" s="6"/>
     </row>
-    <row r="172" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:38" ht="39.5" customHeight="1">
       <c r="A172" s="1">
         <v>2022</v>
       </c>
@@ -6507,13 +6507,13 @@
         <v>555</v>
       </c>
       <c r="E172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:38" ht="39.5" customHeight="1">
       <c r="A173" s="1">
         <v>2023</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:38" ht="39.5" customHeight="1">
       <c r="A174" s="1">
         <v>2024</v>
       </c>
@@ -6541,13 +6541,13 @@
         <v>580</v>
       </c>
       <c r="E174" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F174" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:38" ht="39.5" customHeight="1">
       <c r="A175" s="1">
         <v>2025</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:38" ht="39.5" customHeight="1">
       <c r="A176" s="1">
         <v>2026</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>564</v>
       </c>
       <c r="E176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="1">
         <v>1</v>
@@ -6602,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" ht="39.5" customHeight="1">
       <c r="A177" s="1">
         <v>2027</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" ht="39.5" customHeight="1">
       <c r="A178" s="1">
         <v>2028</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" ht="39.5" customHeight="1">
       <c r="A179" s="1">
         <v>2029</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" ht="39.5" customHeight="1">
       <c r="A180" s="1">
         <v>2030</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" ht="39.5" customHeight="1">
       <c r="A181" s="1">
         <v>2031</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" ht="39.5" customHeight="1">
       <c r="A182" s="1">
         <v>2032</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>114509</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" ht="39.5" customHeight="1">
       <c r="A183" s="1">
         <v>2033</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" ht="39.5" customHeight="1">
       <c r="A184" s="1">
         <v>2034</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" ht="39.5" customHeight="1">
       <c r="A185" s="1">
         <v>2035</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" ht="39.5" customHeight="1">
       <c r="A186" s="1">
         <v>2036</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>579</v>
       </c>
       <c r="E186" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F186" s="1">
         <v>1</v>
